--- a/Resources/2005/Advanced_Percentile_2005.xlsx
+++ b/Resources/2005/Advanced_Percentile_2005.xlsx
@@ -1450,7 +1450,7 @@
     <t>Amar'e Stoudemire</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Dirk Nowitzki</t>
@@ -1462,7 +1462,7 @@
     <t>Kevin Garnett</t>
   </si>
   <si>
-    <t>Yao Ming*</t>
+    <t>Yao Ming</t>
   </si>
   <si>
     <t>LeBron James</t>
@@ -1492,7 +1492,7 @@
     <t>Andrei Kirilenko</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Vince Carter</t>
@@ -1507,7 +1507,7 @@
     <t>Chauncey Billups</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Jackie Butler</t>
@@ -1516,7 +1516,7 @@
     <t>Rashard Lewis</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Shawn Marion</t>
@@ -1525,10 +1525,10 @@
     <t>Metta World Peace</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
-  </si>
-  <si>
-    <t>Grant Hill*</t>
+    <t>Allen Iverson</t>
+  </si>
+  <si>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Larry Hughes</t>
@@ -1573,7 +1573,7 @@
     <t>Carlos Boozer</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
+    <t>Reggie Miller</t>
   </si>
   <si>
     <t>Baron Davis</t>
@@ -1600,7 +1600,7 @@
     <t>Tayshaun Prince</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Chris Bosh</t>
@@ -1840,7 +1840,7 @@
     <t>Al Jefferson</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Greg Buckner</t>
@@ -1870,7 +1870,7 @@
     <t>Fred Jones</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Vladimir Radmanovic</t>
@@ -2083,7 +2083,7 @@
     <t>Josh Smith</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Brian Cook</t>
